--- a/biology/Zoologie/Commission_internationale_des_noms_français_des_oiseaux/Commission_internationale_des_noms_français_des_oiseaux.xlsx
+++ b/biology/Zoologie/Commission_internationale_des_noms_français_des_oiseaux/Commission_internationale_des_noms_français_des_oiseaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Commission_internationale_des_noms_fran%C3%A7ais_des_oiseaux</t>
+          <t>Commission_internationale_des_noms_français_des_oiseaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Commission internationale des noms français des oiseaux (CINFO) est une commission créée par le Comité ornithologique international en 1990 pour établir la liste des noms des oiseaux en français. Elle a été placée sous la présidence conjointe de Pierre Devillers (de l'Institut royal des sciences naturelles de Belgique) et d'Henri Ouellet (en) (du Musée canadien de la nature).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Commission_internationale_des_noms_fran%C3%A7ais_des_oiseaux</t>
+          <t>Commission_internationale_des_noms_français_des_oiseaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Commission a été créée par le Comité ornithologique international en décembre 1990 lors de son 20e congrès à Christchurch en Nouvelle-Zélande.
 Normand David avait établi une liste préliminaire dès le congrès précédent, qui s'était tenu à Ottawa au Canada en juin 1986, et les membres de la Commission, réunis du 21 au 26 août 1991 à Bruxelles en Belgique, l'ont révisée et se sont mis d'accord.
-La liste a été publiée en 1993 sous le titre Noms français des oiseaux du monde[1],[2].
+La liste a été publiée en 1993 sous le titre Noms français des oiseaux du monde,.
 Cette liste n'a jamais été mise à jour, malgré les très nombreuses révisions taxonomiques et adjonctions d'espèces.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Commission_internationale_des_noms_fran%C3%A7ais_des_oiseaux</t>
+          <t>Commission_internationale_des_noms_français_des_oiseaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Règles de nomenclature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste suit de strictes règles de nomenclature : 
 un nom générique (mais pouvant englober plusieurs genres de la taxinomie binomiale),
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Commission_internationale_des_noms_fran%C3%A7ais_des_oiseaux</t>
+          <t>Commission_internationale_des_noms_français_des_oiseaux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,16 +597,18 @@
           <t>Composition de la commission</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La Commission internationale des noms français des oiseaux, placée sous les auspices du Comité ornithologique international, était composée de[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Commission internationale des noms français des oiseaux, placée sous les auspices du Comité ornithologique international, était composée de :
 Pierre Devillers, coprésident, Institut royal des sciences naturelles de Belgique ;
 Henri Ouellet (en), coprésident, Musée canadien de la nature ;
-Édouard Benito-Espinal (1945-)[4], Institut guadeloupéen d’étude et de recherche ornithologique de la Caraïbe ;
+Édouard Benito-Espinal (1945-), Institut guadeloupéen d’étude et de recherche ornithologique de la Caraïbe ;
 Roseline Beudels, Institut royal des sciences naturelles de Belgique ;
-Roger Cruon (1932-2019)[5], Commission de l’avifaune française ;
+Roger Cruon (1932-2019), Commission de l’avifaune française ;
 Normand David, Association québécoise des groupes d’ornithologues ;
-Christian Érard (1939-)[6], Muséum national d’histoire naturelle ;
+Christian Érard (1939-), Muséum national d’histoire naturelle ;
 Michel Gosselin, Musée canadien de la nature ;
 Gilles Seutin, Smithsonian Tropical Research Institute (en).</t>
         </is>
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Commission_internationale_des_noms_fran%C3%A7ais_des_oiseaux</t>
+          <t>Commission_internationale_des_noms_français_des_oiseaux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Noms français des oiseaux du monde, avec les équivalents latins et anglais, Sainte-Foy (Québec), Multimondes  (ISBN 2-921146-14-2) et Bayonne (France), Raymond Chabaud  (ISBN 2-87749-035-1) (BNF 37446210), 1993, 452 p. [lire en ligne].</t>
         </is>
